--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed2/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.854</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.238</v>
+        <v>-7.761</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.666</v>
+        <v>13.098</v>
       </c>
     </row>
     <row r="6">
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.826000000000001</v>
+        <v>-8.111000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -709,10 +709,10 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.632</v>
+        <v>-7.947999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>13.814</v>
+        <v>13.041</v>
       </c>
     </row>
     <row r="17">
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.886</v>
+        <v>-7.934</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -828,7 +828,7 @@
         <v>-10.59</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.862</v>
+        <v>-7.826000000000001</v>
       </c>
       <c r="E23" t="n">
         <v>10.67</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.961999999999999</v>
+        <v>-8.306999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
